--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyazato\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyazato\Documents\github\github-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,7 +420,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -464,7 +472,9 @@
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -478,7 +488,9 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -492,7 +504,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -506,7 +520,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
